--- a/pruebas/ddhhPruebasModelos.xlsx
+++ b/pruebas/ddhhPruebasModelos.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Desktop/MDproyecto/codigo/pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B81B4F-CC1D-B14F-90C7-71CA93C5CB33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987ED5B0-DF33-B345-9865-64DCA43B1736}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33800" yWindow="460" windowWidth="25400" windowHeight="19540" activeTab="1" xr2:uid="{994D7A11-D6B6-874E-BF9C-2EFBBDEEB8E6}"/>
+    <workbookView xWindow="33800" yWindow="460" windowWidth="25400" windowHeight="19540" xr2:uid="{994D7A11-D6B6-874E-BF9C-2EFBBDEEB8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bayes Naiv" sheetId="1" r:id="rId1"/>
     <sheet name="knn" sheetId="4" r:id="rId2"/>
     <sheet name="Rules and Trees" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1149,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F054F-BE1E-FF47-A59D-95CA4F40E461}">
-  <dimension ref="A1:Y195"/>
+  <dimension ref="A1:Y196"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="I170" workbookViewId="0">
+      <selection activeCell="N202" sqref="N202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,6 +1164,7 @@
     <col min="12" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
     <col min="19" max="19" width="10.1640625" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
     <col min="25" max="25" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -6641,39 +6642,39 @@
         <v>120</v>
       </c>
       <c r="O111">
-        <f>SUM(O100:O108)</f>
+        <f t="shared" ref="O111:W111" si="3">SUM(O100:O108)</f>
         <v>8</v>
       </c>
       <c r="P111">
-        <f>SUM(P100:P108)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q111">
-        <f>SUM(Q100:Q108)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="R111">
-        <f>SUM(R100:R108)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="S111">
-        <f>SUM(S100:S108)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="T111">
-        <f>SUM(T100:T108)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="U111">
-        <f>SUM(U100:U108)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="V111">
-        <f>SUM(V100:V108)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="W111">
-        <f>SUM(W100:W108)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7487,35 +7488,35 @@
         <v>8</v>
       </c>
       <c r="P126">
-        <f t="shared" ref="P126:W126" si="3">SUM(P116:P124)</f>
+        <f t="shared" ref="P126:W126" si="4">SUM(P116:P124)</f>
         <v>5</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="R126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="S126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="T126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="U126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="V126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="W126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -9301,35 +9302,35 @@
         <v>8</v>
       </c>
       <c r="P167">
-        <f t="shared" ref="P167:W167" si="4">SUM(P157:P165)</f>
+        <f t="shared" ref="P167:W167" si="5">SUM(P157:P165)</f>
         <v>5</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="R167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="S167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="T167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="U167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="W167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -10716,6 +10717,72 @@
         <v>0.67902782749182222</v>
       </c>
     </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <f>SUM(B188:B194)</f>
+        <v>22</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:H196" si="6">SUM(C188:C194)</f>
+        <v>22</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J196">
+        <f>SUM(B196:H196)</f>
+        <v>186</v>
+      </c>
+      <c r="O196">
+        <f>SUM(O188:O194)</f>
+        <v>8</v>
+      </c>
+      <c r="P196">
+        <f t="shared" ref="P196:U196" si="7">SUM(P188:P194)</f>
+        <v>24</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="R196">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="W196">
+        <f>SUM(O196:U196)</f>
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10725,7 +10792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA563BA-F5A1-8545-ABFA-5E0D8AE202BE}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>

--- a/pruebas/ddhhPruebasModelos.xlsx
+++ b/pruebas/ddhhPruebasModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Desktop/MDproyecto/codigo/pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987ED5B0-DF33-B345-9865-64DCA43B1736}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3E5B6-F2BA-8141-88A1-15313DCB3CA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33800" yWindow="460" windowWidth="25400" windowHeight="19540" xr2:uid="{994D7A11-D6B6-874E-BF9C-2EFBBDEEB8E6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19000" activeTab="1" xr2:uid="{994D7A11-D6B6-874E-BF9C-2EFBBDEEB8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bayes Naiv" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="239">
   <si>
     <t>accuracy: 80.12% +/- 6.04% (micro average: 80.07%)</t>
   </si>
@@ -233,18 +233,6 @@
     <t>kappa: 0.508</t>
   </si>
   <si>
-    <t>ClasificadorDDHHBalanceadoData: 7 categorias, sin contexto y 18, balanceado agregando datos y  con  atributos (0.04 con 966 atributos y 186 filas)</t>
-  </si>
-  <si>
-    <t>accuracy: 89.30%</t>
-  </si>
-  <si>
-    <t>kappa: 0.873 +/- 0.077 (micro average: 0.872)</t>
-  </si>
-  <si>
-    <t>accuracy: 62.79%</t>
-  </si>
-  <si>
     <t>ClasificadorDDHHBalanceadoRules: usando algoritmo de rules, 7 categorias, sin contexto y 18, balanceado agregando datos y  con  atributos (0.04 con 966 atributos y 186 filas)</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>kappa: 0.499</t>
   </si>
   <si>
-    <t>kappa: 0.559</t>
-  </si>
-  <si>
     <t>accuracy: 56.03%</t>
   </si>
   <si>
@@ -723,13 +708,55 @@
   </si>
   <si>
     <t>ClasificadorDDHHBalanceadoKnn: usando algoritmo knn, 7 categorias, sin contexto y 18, balanceado agregando datos y con  atributos (0.04 con 966 atributos y 186 filas)</t>
+  </si>
+  <si>
+    <t>ClasificadorDDHHBalanceadoData: 7 categorias, sin contexto y 18, balanceado agregando datos y  con  atributos (0.04 con 749 atributos y 185 filas)</t>
+  </si>
+  <si>
+    <t>accuracy: 90.26% +/- 6.12% (micro average: 90.27%)</t>
+  </si>
+  <si>
+    <t>kappa: 0.884 +/- 0.072 (micro average: 0.884)</t>
+  </si>
+  <si>
+    <t>ClasificadorDDHHBalanceadoData: 7 categorias, sin contexto y 18, balanceado agregando datos y  con  atributos (0.03 con 1.199 atributos y 185 filas)</t>
+  </si>
+  <si>
+    <t>accuracy: 66.28%</t>
+  </si>
+  <si>
+    <t>kappa: 0.592</t>
+  </si>
+  <si>
+    <t>accuracy: 85.38% +/- 3.68% (micro average: 85.41%)</t>
+  </si>
+  <si>
+    <t>kappa: 0.825 +/- 0.045 (micro average: 0.826)</t>
+  </si>
+  <si>
+    <t>accuracy: 63.95%</t>
+  </si>
+  <si>
+    <t>kappa: 0.565</t>
+  </si>
+  <si>
+    <t>accuracy: 71.43%</t>
+  </si>
+  <si>
+    <t>kappa: 0.667</t>
+  </si>
+  <si>
+    <t>Sobre datos de prueba 2</t>
+  </si>
+  <si>
+    <t>kappa: 0.611</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -771,6 +798,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -787,13 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -823,18 +858,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F054F-BE1E-FF47-A59D-95CA4F40E461}">
-  <dimension ref="A1:Y196"/>
+  <dimension ref="A1:AI211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I170" workbookViewId="0">
-      <selection activeCell="N202" sqref="N202"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="Z199" sqref="Z199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,6 +1196,7 @@
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
@@ -4188,7 +4225,7 @@
       <c r="J64" s="5"/>
       <c r="L64" s="11"/>
       <c r="N64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
@@ -4216,7 +4253,7 @@
       <c r="J65" s="5"/>
       <c r="L65" s="11"/>
       <c r="N65" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
@@ -6639,7 +6676,7 @@
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O111">
         <f t="shared" ref="O111:W111" si="3">SUM(O100:O108)</f>
@@ -6727,7 +6764,7 @@
         <v>23</v>
       </c>
       <c r="N113" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
@@ -7533,7 +7570,7 @@
         <v>51</v>
       </c>
       <c r="N129" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
@@ -7541,7 +7578,7 @@
         <v>52</v>
       </c>
       <c r="N130" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
@@ -7959,7 +7996,7 @@
         <v>55</v>
       </c>
       <c r="N141" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
@@ -7967,7 +8004,7 @@
         <v>56</v>
       </c>
       <c r="N142" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
@@ -8479,95 +8516,95 @@
       </c>
     </row>
     <row r="153" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="16"/>
-      <c r="J153" s="16"/>
-      <c r="K153" s="16"/>
-      <c r="L153" s="16"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
       <c r="N153" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A154" s="16" t="s">
+      <c r="A154" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B154" s="16"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="16"/>
-      <c r="J154" s="16"/>
-      <c r="K154" s="16"/>
-      <c r="L154" s="16"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
       <c r="N154" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
-      <c r="J155" s="16"/>
-      <c r="K155" s="16"/>
-      <c r="L155" s="16"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
       <c r="N155" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A156" s="16"/>
-      <c r="B156" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E156" s="16" t="s">
+      <c r="A156" s="13"/>
+      <c r="B156" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F156" s="16" t="s">
+      <c r="F156" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G156" s="16" t="s">
+      <c r="G156" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H156" s="16" t="s">
+      <c r="H156" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I156" s="16" t="s">
+      <c r="I156" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J156" s="16" t="s">
+      <c r="J156" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K156" s="16" t="s">
+      <c r="K156" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L156" s="16" t="s">
+      <c r="L156" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O156" t="s">
@@ -8605,40 +8642,40 @@
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="13">
         <v>17</v>
       </c>
-      <c r="C157" s="16">
+      <c r="C157" s="13">
         <v>5</v>
       </c>
-      <c r="D157" s="16">
-        <v>1</v>
-      </c>
-      <c r="E157" s="16">
-        <v>0</v>
-      </c>
-      <c r="F157" s="16">
-        <v>1</v>
-      </c>
-      <c r="G157" s="16">
-        <v>0</v>
-      </c>
-      <c r="H157" s="16">
-        <v>0</v>
-      </c>
-      <c r="I157" s="16">
-        <v>0</v>
-      </c>
-      <c r="J157" s="16">
-        <v>0</v>
-      </c>
-      <c r="K157" s="17">
+      <c r="D157" s="13">
+        <v>1</v>
+      </c>
+      <c r="E157" s="13">
+        <v>0</v>
+      </c>
+      <c r="F157" s="13">
+        <v>1</v>
+      </c>
+      <c r="G157" s="13">
+        <v>0</v>
+      </c>
+      <c r="H157" s="13">
+        <v>0</v>
+      </c>
+      <c r="I157" s="13">
+        <v>0</v>
+      </c>
+      <c r="J157" s="13">
+        <v>0</v>
+      </c>
+      <c r="K157" s="14">
         <v>0.70830000000000004</v>
       </c>
-      <c r="L157" s="16"/>
+      <c r="L157" s="13"/>
       <c r="N157" t="s">
         <v>15</v>
       </c>
@@ -8674,40 +8711,40 @@
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A158" s="16" t="s">
+      <c r="A158" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B158" s="16">
-        <v>0</v>
-      </c>
-      <c r="C158" s="16">
+      <c r="B158" s="13">
+        <v>0</v>
+      </c>
+      <c r="C158" s="13">
         <v>13</v>
       </c>
-      <c r="D158" s="16">
-        <v>0</v>
-      </c>
-      <c r="E158" s="16">
-        <v>0</v>
-      </c>
-      <c r="F158" s="16">
-        <v>0</v>
-      </c>
-      <c r="G158" s="16">
-        <v>0</v>
-      </c>
-      <c r="H158" s="16">
-        <v>0</v>
-      </c>
-      <c r="I158" s="16">
-        <v>1</v>
-      </c>
-      <c r="J158" s="16">
-        <v>0</v>
-      </c>
-      <c r="K158" s="17">
+      <c r="D158" s="13">
+        <v>0</v>
+      </c>
+      <c r="E158" s="13">
+        <v>0</v>
+      </c>
+      <c r="F158" s="13">
+        <v>0</v>
+      </c>
+      <c r="G158" s="13">
+        <v>0</v>
+      </c>
+      <c r="H158" s="13">
+        <v>0</v>
+      </c>
+      <c r="I158" s="13">
+        <v>1</v>
+      </c>
+      <c r="J158" s="13">
+        <v>0</v>
+      </c>
+      <c r="K158" s="14">
         <v>0.92859999999999998</v>
       </c>
-      <c r="L158" s="16"/>
+      <c r="L158" s="13"/>
       <c r="N158" t="s">
         <v>19</v>
       </c>
@@ -8743,40 +8780,40 @@
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B159" s="16">
-        <v>1</v>
-      </c>
-      <c r="C159" s="16">
-        <v>1</v>
-      </c>
-      <c r="D159" s="16">
+      <c r="B159" s="13">
+        <v>1</v>
+      </c>
+      <c r="C159" s="13">
+        <v>1</v>
+      </c>
+      <c r="D159" s="13">
         <v>37</v>
       </c>
-      <c r="E159" s="16">
-        <v>1</v>
-      </c>
-      <c r="F159" s="16">
-        <v>2</v>
-      </c>
-      <c r="G159" s="16">
-        <v>0</v>
-      </c>
-      <c r="H159" s="16">
-        <v>0</v>
-      </c>
-      <c r="I159" s="16">
-        <v>0</v>
-      </c>
-      <c r="J159" s="16">
-        <v>0</v>
-      </c>
-      <c r="K159" s="17">
+      <c r="E159" s="13">
+        <v>1</v>
+      </c>
+      <c r="F159" s="13">
+        <v>2</v>
+      </c>
+      <c r="G159" s="13">
+        <v>0</v>
+      </c>
+      <c r="H159" s="13">
+        <v>0</v>
+      </c>
+      <c r="I159" s="13">
+        <v>0</v>
+      </c>
+      <c r="J159" s="13">
+        <v>0</v>
+      </c>
+      <c r="K159" s="14">
         <v>0.88100000000000001</v>
       </c>
-      <c r="L159" s="16"/>
+      <c r="L159" s="13"/>
       <c r="N159" t="s">
         <v>17</v>
       </c>
@@ -8812,40 +8849,40 @@
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="16">
-        <v>1</v>
-      </c>
-      <c r="C160" s="16">
-        <v>0</v>
-      </c>
-      <c r="D160" s="16">
-        <v>2</v>
-      </c>
-      <c r="E160" s="16">
+      <c r="B160" s="13">
+        <v>1</v>
+      </c>
+      <c r="C160" s="13">
+        <v>0</v>
+      </c>
+      <c r="D160" s="13">
+        <v>2</v>
+      </c>
+      <c r="E160" s="13">
         <v>12</v>
       </c>
-      <c r="F160" s="16">
-        <v>0</v>
-      </c>
-      <c r="G160" s="16">
-        <v>0</v>
-      </c>
-      <c r="H160" s="16">
-        <v>2</v>
-      </c>
-      <c r="I160" s="16">
-        <v>2</v>
-      </c>
-      <c r="J160" s="16">
-        <v>3</v>
-      </c>
-      <c r="K160" s="17">
+      <c r="F160" s="13">
+        <v>0</v>
+      </c>
+      <c r="G160" s="13">
+        <v>0</v>
+      </c>
+      <c r="H160" s="13">
+        <v>2</v>
+      </c>
+      <c r="I160" s="13">
+        <v>2</v>
+      </c>
+      <c r="J160" s="13">
+        <v>3</v>
+      </c>
+      <c r="K160" s="14">
         <v>0.54549999999999998</v>
       </c>
-      <c r="L160" s="16"/>
+      <c r="L160" s="13"/>
       <c r="N160" t="s">
         <v>13</v>
       </c>
@@ -8881,40 +8918,40 @@
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B161" s="16">
-        <v>2</v>
-      </c>
-      <c r="C161" s="16">
-        <v>0</v>
-      </c>
-      <c r="D161" s="16">
+      <c r="B161" s="13">
+        <v>2</v>
+      </c>
+      <c r="C161" s="13">
+        <v>0</v>
+      </c>
+      <c r="D161" s="13">
         <v>4</v>
       </c>
-      <c r="E161" s="16">
-        <v>2</v>
-      </c>
-      <c r="F161" s="16">
+      <c r="E161" s="13">
+        <v>2</v>
+      </c>
+      <c r="F161" s="13">
         <v>21</v>
       </c>
-      <c r="G161" s="16">
-        <v>0</v>
-      </c>
-      <c r="H161" s="16">
-        <v>1</v>
-      </c>
-      <c r="I161" s="16">
-        <v>1</v>
-      </c>
-      <c r="J161" s="16">
-        <v>1</v>
-      </c>
-      <c r="K161" s="17">
+      <c r="G161" s="13">
+        <v>0</v>
+      </c>
+      <c r="H161" s="13">
+        <v>1</v>
+      </c>
+      <c r="I161" s="13">
+        <v>1</v>
+      </c>
+      <c r="J161" s="13">
+        <v>1</v>
+      </c>
+      <c r="K161" s="14">
         <v>0.65620000000000001</v>
       </c>
-      <c r="L161" s="16"/>
+      <c r="L161" s="13"/>
       <c r="N161" t="s">
         <v>14</v>
       </c>
@@ -8950,40 +8987,40 @@
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B162" s="16">
-        <v>0</v>
-      </c>
-      <c r="C162" s="16">
-        <v>0</v>
-      </c>
-      <c r="D162" s="16">
-        <v>0</v>
-      </c>
-      <c r="E162" s="16">
-        <v>1</v>
-      </c>
-      <c r="F162" s="16">
-        <v>0</v>
-      </c>
-      <c r="G162" s="16">
+      <c r="B162" s="13">
+        <v>0</v>
+      </c>
+      <c r="C162" s="13">
+        <v>0</v>
+      </c>
+      <c r="D162" s="13">
+        <v>0</v>
+      </c>
+      <c r="E162" s="13">
+        <v>1</v>
+      </c>
+      <c r="F162" s="13">
+        <v>0</v>
+      </c>
+      <c r="G162" s="13">
         <v>16</v>
       </c>
-      <c r="H162" s="16">
-        <v>0</v>
-      </c>
-      <c r="I162" s="16">
-        <v>0</v>
-      </c>
-      <c r="J162" s="16">
-        <v>0</v>
-      </c>
-      <c r="K162" s="17">
+      <c r="H162" s="13">
+        <v>0</v>
+      </c>
+      <c r="I162" s="13">
+        <v>0</v>
+      </c>
+      <c r="J162" s="13">
+        <v>0</v>
+      </c>
+      <c r="K162" s="14">
         <v>0.94120000000000004</v>
       </c>
-      <c r="L162" s="16"/>
+      <c r="L162" s="13"/>
       <c r="N162" t="s">
         <v>12</v>
       </c>
@@ -9019,40 +9056,40 @@
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B163" s="16">
-        <v>0</v>
-      </c>
-      <c r="C163" s="16">
-        <v>1</v>
-      </c>
-      <c r="D163" s="16">
-        <v>0</v>
-      </c>
-      <c r="E163" s="16">
-        <v>2</v>
-      </c>
-      <c r="F163" s="16">
-        <v>1</v>
-      </c>
-      <c r="G163" s="16">
-        <v>2</v>
-      </c>
-      <c r="H163" s="16">
+      <c r="B163" s="13">
+        <v>0</v>
+      </c>
+      <c r="C163" s="13">
+        <v>1</v>
+      </c>
+      <c r="D163" s="13">
+        <v>0</v>
+      </c>
+      <c r="E163" s="13">
+        <v>2</v>
+      </c>
+      <c r="F163" s="13">
+        <v>1</v>
+      </c>
+      <c r="G163" s="13">
+        <v>2</v>
+      </c>
+      <c r="H163" s="13">
         <v>33</v>
       </c>
-      <c r="I163" s="16">
-        <v>0</v>
-      </c>
-      <c r="J163" s="16">
-        <v>1</v>
-      </c>
-      <c r="K163" s="17">
+      <c r="I163" s="13">
+        <v>0</v>
+      </c>
+      <c r="J163" s="13">
+        <v>1</v>
+      </c>
+      <c r="K163" s="14">
         <v>0.82499999999999996</v>
       </c>
-      <c r="L163" s="16"/>
+      <c r="L163" s="13"/>
       <c r="N163" t="s">
         <v>18</v>
       </c>
@@ -9088,40 +9125,40 @@
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B164" s="16">
-        <v>0</v>
-      </c>
-      <c r="C164" s="16">
-        <v>2</v>
-      </c>
-      <c r="D164" s="16">
-        <v>0</v>
-      </c>
-      <c r="E164" s="16">
-        <v>1</v>
-      </c>
-      <c r="F164" s="16">
-        <v>0</v>
-      </c>
-      <c r="G164" s="16">
-        <v>1</v>
-      </c>
-      <c r="H164" s="16">
-        <v>0</v>
-      </c>
-      <c r="I164" s="16">
+      <c r="B164" s="13">
+        <v>0</v>
+      </c>
+      <c r="C164" s="13">
+        <v>2</v>
+      </c>
+      <c r="D164" s="13">
+        <v>0</v>
+      </c>
+      <c r="E164" s="13">
+        <v>1</v>
+      </c>
+      <c r="F164" s="13">
+        <v>0</v>
+      </c>
+      <c r="G164" s="13">
+        <v>1</v>
+      </c>
+      <c r="H164" s="13">
+        <v>0</v>
+      </c>
+      <c r="I164" s="13">
         <v>11</v>
       </c>
-      <c r="J164" s="16">
-        <v>0</v>
-      </c>
-      <c r="K164" s="17">
+      <c r="J164" s="13">
+        <v>0</v>
+      </c>
+      <c r="K164" s="14">
         <v>0.73329999999999995</v>
       </c>
-      <c r="L164" s="16"/>
+      <c r="L164" s="13"/>
       <c r="N164" t="s">
         <v>16</v>
       </c>
@@ -9157,40 +9194,40 @@
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A165" s="16" t="s">
+      <c r="A165" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B165" s="16">
-        <v>1</v>
-      </c>
-      <c r="C165" s="16">
-        <v>0</v>
-      </c>
-      <c r="D165" s="16">
-        <v>0</v>
-      </c>
-      <c r="E165" s="16">
+      <c r="B165" s="13">
+        <v>1</v>
+      </c>
+      <c r="C165" s="13">
+        <v>0</v>
+      </c>
+      <c r="D165" s="13">
+        <v>0</v>
+      </c>
+      <c r="E165" s="13">
         <v>4</v>
       </c>
-      <c r="F165" s="16">
-        <v>0</v>
-      </c>
-      <c r="G165" s="16">
-        <v>0</v>
-      </c>
-      <c r="H165" s="16">
-        <v>3</v>
-      </c>
-      <c r="I165" s="16">
-        <v>0</v>
-      </c>
-      <c r="J165" s="16">
+      <c r="F165" s="13">
+        <v>0</v>
+      </c>
+      <c r="G165" s="13">
+        <v>0</v>
+      </c>
+      <c r="H165" s="13">
+        <v>3</v>
+      </c>
+      <c r="I165" s="13">
+        <v>0</v>
+      </c>
+      <c r="J165" s="13">
         <v>16</v>
       </c>
-      <c r="K165" s="17">
+      <c r="K165" s="14">
         <v>0.66669999999999996</v>
       </c>
-      <c r="L165" s="16"/>
+      <c r="L165" s="13"/>
       <c r="N165" t="s">
         <v>11</v>
       </c>
@@ -9226,38 +9263,38 @@
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A166" s="16" t="s">
+      <c r="A166" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="17">
+      <c r="B166" s="14">
         <v>0.77270000000000005</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="14">
         <v>0.59089999999999998</v>
       </c>
-      <c r="D166" s="17">
+      <c r="D166" s="14">
         <v>0.84089999999999998</v>
       </c>
-      <c r="E166" s="17">
+      <c r="E166" s="14">
         <v>0.52170000000000005</v>
       </c>
-      <c r="F166" s="17">
+      <c r="F166" s="14">
         <v>0.84</v>
       </c>
-      <c r="G166" s="17">
+      <c r="G166" s="14">
         <v>0.84209999999999996</v>
       </c>
-      <c r="H166" s="17">
+      <c r="H166" s="14">
         <v>0.84619999999999995</v>
       </c>
-      <c r="I166" s="17">
+      <c r="I166" s="14">
         <v>0.73329999999999995</v>
       </c>
-      <c r="J166" s="17">
+      <c r="J166" s="14">
         <v>0.76190000000000002</v>
       </c>
-      <c r="K166" s="16"/>
-      <c r="L166" s="17">
+      <c r="K166" s="13"/>
+      <c r="L166" s="14">
         <f>POWER(B166*C166*D166*E166*F166*G166*H166*I166*J166,1/9)</f>
         <v>0.7405492891167349</v>
       </c>
@@ -9335,93 +9372,93 @@
       </c>
     </row>
     <row r="169" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="16"/>
-      <c r="I169" s="16"/>
-      <c r="J169" s="16"/>
-      <c r="K169" s="16"/>
-      <c r="L169" s="16"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="13"/>
       <c r="N169" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="16"/>
-      <c r="J170" s="16"/>
-      <c r="K170" s="16"/>
-      <c r="L170" s="16"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+      <c r="L170" s="13"/>
       <c r="N170" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A171" s="16"/>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="16"/>
-      <c r="I171" s="16"/>
-      <c r="J171" s="16"/>
-      <c r="K171" s="16"/>
-      <c r="L171" s="16"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
       <c r="N171" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A172" s="16"/>
-      <c r="B172" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172" s="16" t="s">
+      <c r="A172" s="13"/>
+      <c r="B172" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F172" s="16" t="s">
+      <c r="F172" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G172" s="16" t="s">
+      <c r="G172" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H172" s="16" t="s">
+      <c r="H172" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I172" s="16" t="s">
+      <c r="I172" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J172" s="16" t="s">
+      <c r="J172" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K172" s="16" t="s">
+      <c r="K172" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L172" s="16" t="s">
+      <c r="L172" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O172" t="s">
@@ -9459,40 +9496,40 @@
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A173" s="16" t="s">
+      <c r="A173" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B173" s="16">
+      <c r="B173" s="13">
         <v>17</v>
       </c>
-      <c r="C173" s="16">
+      <c r="C173" s="13">
         <v>4</v>
       </c>
-      <c r="D173" s="16">
-        <v>0</v>
-      </c>
-      <c r="E173" s="16">
-        <v>1</v>
-      </c>
-      <c r="F173" s="16">
-        <v>1</v>
-      </c>
-      <c r="G173" s="16">
-        <v>0</v>
-      </c>
-      <c r="H173" s="16">
-        <v>0</v>
-      </c>
-      <c r="I173" s="16">
-        <v>0</v>
-      </c>
-      <c r="J173" s="16">
-        <v>0</v>
-      </c>
-      <c r="K173" s="17">
+      <c r="D173" s="13">
+        <v>0</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13">
+        <v>1</v>
+      </c>
+      <c r="G173" s="13">
+        <v>0</v>
+      </c>
+      <c r="H173" s="13">
+        <v>0</v>
+      </c>
+      <c r="I173" s="13">
+        <v>0</v>
+      </c>
+      <c r="J173" s="13">
+        <v>0</v>
+      </c>
+      <c r="K173" s="14">
         <v>0.73909999999999998</v>
       </c>
-      <c r="L173" s="16"/>
+      <c r="L173" s="13"/>
       <c r="N173" t="s">
         <v>15</v>
       </c>
@@ -9528,40 +9565,40 @@
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A174" s="16" t="s">
+      <c r="A174" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B174" s="16">
-        <v>0</v>
-      </c>
-      <c r="C174" s="16">
+      <c r="B174" s="13">
+        <v>0</v>
+      </c>
+      <c r="C174" s="13">
         <v>14</v>
       </c>
-      <c r="D174" s="16">
-        <v>0</v>
-      </c>
-      <c r="E174" s="16">
-        <v>0</v>
-      </c>
-      <c r="F174" s="16">
-        <v>0</v>
-      </c>
-      <c r="G174" s="16">
-        <v>0</v>
-      </c>
-      <c r="H174" s="16">
-        <v>0</v>
-      </c>
-      <c r="I174" s="16">
-        <v>1</v>
-      </c>
-      <c r="J174" s="16">
-        <v>0</v>
-      </c>
-      <c r="K174" s="17">
+      <c r="D174" s="13">
+        <v>0</v>
+      </c>
+      <c r="E174" s="13">
+        <v>0</v>
+      </c>
+      <c r="F174" s="13">
+        <v>0</v>
+      </c>
+      <c r="G174" s="13">
+        <v>0</v>
+      </c>
+      <c r="H174" s="13">
+        <v>0</v>
+      </c>
+      <c r="I174" s="13">
+        <v>1</v>
+      </c>
+      <c r="J174" s="13">
+        <v>0</v>
+      </c>
+      <c r="K174" s="14">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L174" s="16"/>
+      <c r="L174" s="13"/>
       <c r="N174" t="s">
         <v>19</v>
       </c>
@@ -9597,40 +9634,40 @@
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B175" s="16">
-        <v>0</v>
-      </c>
-      <c r="C175" s="16">
-        <v>1</v>
-      </c>
-      <c r="D175" s="16">
+      <c r="B175" s="13">
+        <v>0</v>
+      </c>
+      <c r="C175" s="13">
+        <v>1</v>
+      </c>
+      <c r="D175" s="13">
         <v>39</v>
       </c>
-      <c r="E175" s="16">
-        <v>0</v>
-      </c>
-      <c r="F175" s="16">
+      <c r="E175" s="13">
+        <v>0</v>
+      </c>
+      <c r="F175" s="13">
         <v>4</v>
       </c>
-      <c r="G175" s="16">
-        <v>0</v>
-      </c>
-      <c r="H175" s="16">
-        <v>0</v>
-      </c>
-      <c r="I175" s="16">
-        <v>0</v>
-      </c>
-      <c r="J175" s="16">
-        <v>0</v>
-      </c>
-      <c r="K175" s="17">
+      <c r="G175" s="13">
+        <v>0</v>
+      </c>
+      <c r="H175" s="13">
+        <v>0</v>
+      </c>
+      <c r="I175" s="13">
+        <v>0</v>
+      </c>
+      <c r="J175" s="13">
+        <v>0</v>
+      </c>
+      <c r="K175" s="14">
         <v>0.88639999999999997</v>
       </c>
-      <c r="L175" s="16"/>
+      <c r="L175" s="13"/>
       <c r="N175" t="s">
         <v>17</v>
       </c>
@@ -9666,40 +9703,40 @@
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="16" t="s">
+      <c r="A176" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="16">
-        <v>1</v>
-      </c>
-      <c r="C176" s="16">
-        <v>0</v>
-      </c>
-      <c r="D176" s="16">
-        <v>3</v>
-      </c>
-      <c r="E176" s="16">
+      <c r="B176" s="13">
+        <v>1</v>
+      </c>
+      <c r="C176" s="13">
+        <v>0</v>
+      </c>
+      <c r="D176" s="13">
+        <v>3</v>
+      </c>
+      <c r="E176" s="13">
         <v>13</v>
       </c>
-      <c r="F176" s="16">
-        <v>1</v>
-      </c>
-      <c r="G176" s="16">
-        <v>0</v>
-      </c>
-      <c r="H176" s="16">
-        <v>1</v>
-      </c>
-      <c r="I176" s="16">
-        <v>1</v>
-      </c>
-      <c r="J176" s="16">
-        <v>3</v>
-      </c>
-      <c r="K176" s="17">
+      <c r="F176" s="13">
+        <v>1</v>
+      </c>
+      <c r="G176" s="13">
+        <v>0</v>
+      </c>
+      <c r="H176" s="13">
+        <v>1</v>
+      </c>
+      <c r="I176" s="13">
+        <v>1</v>
+      </c>
+      <c r="J176" s="13">
+        <v>3</v>
+      </c>
+      <c r="K176" s="14">
         <v>0.56520000000000004</v>
       </c>
-      <c r="L176" s="16"/>
+      <c r="L176" s="13"/>
       <c r="N176" t="s">
         <v>13</v>
       </c>
@@ -9734,41 +9771,41 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A177" s="16" t="s">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A177" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B177" s="16">
-        <v>3</v>
-      </c>
-      <c r="C177" s="16">
-        <v>0</v>
-      </c>
-      <c r="D177" s="16">
-        <v>2</v>
-      </c>
-      <c r="E177" s="16">
-        <v>0</v>
-      </c>
-      <c r="F177" s="16">
+      <c r="B177" s="13">
+        <v>3</v>
+      </c>
+      <c r="C177" s="13">
+        <v>0</v>
+      </c>
+      <c r="D177" s="13">
+        <v>2</v>
+      </c>
+      <c r="E177" s="13">
+        <v>0</v>
+      </c>
+      <c r="F177" s="13">
         <v>19</v>
       </c>
-      <c r="G177" s="16">
-        <v>0</v>
-      </c>
-      <c r="H177" s="16">
-        <v>1</v>
-      </c>
-      <c r="I177" s="16">
-        <v>1</v>
-      </c>
-      <c r="J177" s="16">
-        <v>1</v>
-      </c>
-      <c r="K177" s="17">
+      <c r="G177" s="13">
+        <v>0</v>
+      </c>
+      <c r="H177" s="13">
+        <v>1</v>
+      </c>
+      <c r="I177" s="13">
+        <v>1</v>
+      </c>
+      <c r="J177" s="13">
+        <v>1</v>
+      </c>
+      <c r="K177" s="14">
         <v>0.70369999999999999</v>
       </c>
-      <c r="L177" s="16"/>
+      <c r="L177" s="13"/>
       <c r="N177" t="s">
         <v>14</v>
       </c>
@@ -9803,41 +9840,41 @@
         <v>0.64710000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A178" s="16" t="s">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A178" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B178" s="16">
-        <v>0</v>
-      </c>
-      <c r="C178" s="16">
-        <v>0</v>
-      </c>
-      <c r="D178" s="16">
-        <v>0</v>
-      </c>
-      <c r="E178" s="16">
-        <v>1</v>
-      </c>
-      <c r="F178" s="16">
-        <v>0</v>
-      </c>
-      <c r="G178" s="16">
+      <c r="B178" s="13">
+        <v>0</v>
+      </c>
+      <c r="C178" s="13">
+        <v>0</v>
+      </c>
+      <c r="D178" s="13">
+        <v>0</v>
+      </c>
+      <c r="E178" s="13">
+        <v>1</v>
+      </c>
+      <c r="F178" s="13">
+        <v>0</v>
+      </c>
+      <c r="G178" s="13">
         <v>17</v>
       </c>
-      <c r="H178" s="16">
-        <v>0</v>
-      </c>
-      <c r="I178" s="16">
-        <v>0</v>
-      </c>
-      <c r="J178" s="16">
-        <v>0</v>
-      </c>
-      <c r="K178" s="17">
+      <c r="H178" s="13">
+        <v>0</v>
+      </c>
+      <c r="I178" s="13">
+        <v>0</v>
+      </c>
+      <c r="J178" s="13">
+        <v>0</v>
+      </c>
+      <c r="K178" s="14">
         <v>0.94440000000000002</v>
       </c>
-      <c r="L178" s="16"/>
+      <c r="L178" s="13"/>
       <c r="N178" t="s">
         <v>12</v>
       </c>
@@ -9872,41 +9909,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A179" s="16" t="s">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A179" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B179" s="16">
-        <v>0</v>
-      </c>
-      <c r="C179" s="16">
-        <v>0</v>
-      </c>
-      <c r="D179" s="16">
-        <v>0</v>
-      </c>
-      <c r="E179" s="16">
-        <v>3</v>
-      </c>
-      <c r="F179" s="16">
-        <v>0</v>
-      </c>
-      <c r="G179" s="16">
-        <v>1</v>
-      </c>
-      <c r="H179" s="16">
+      <c r="B179" s="13">
+        <v>0</v>
+      </c>
+      <c r="C179" s="13">
+        <v>0</v>
+      </c>
+      <c r="D179" s="13">
+        <v>0</v>
+      </c>
+      <c r="E179" s="13">
+        <v>3</v>
+      </c>
+      <c r="F179" s="13">
+        <v>0</v>
+      </c>
+      <c r="G179" s="13">
+        <v>1</v>
+      </c>
+      <c r="H179" s="13">
         <v>36</v>
       </c>
-      <c r="I179" s="16">
-        <v>0</v>
-      </c>
-      <c r="J179" s="16">
-        <v>2</v>
-      </c>
-      <c r="K179" s="17">
+      <c r="I179" s="13">
+        <v>0</v>
+      </c>
+      <c r="J179" s="13">
+        <v>2</v>
+      </c>
+      <c r="K179" s="14">
         <v>0.85709999999999997</v>
       </c>
-      <c r="L179" s="16"/>
+      <c r="L179" s="13"/>
       <c r="N179" t="s">
         <v>18</v>
       </c>
@@ -9941,41 +9978,41 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A180" s="16" t="s">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A180" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B180" s="16">
-        <v>1</v>
-      </c>
-      <c r="C180" s="16">
-        <v>3</v>
-      </c>
-      <c r="D180" s="16">
-        <v>0</v>
-      </c>
-      <c r="E180" s="16">
-        <v>2</v>
-      </c>
-      <c r="F180" s="16">
-        <v>0</v>
-      </c>
-      <c r="G180" s="16">
-        <v>1</v>
-      </c>
-      <c r="H180" s="16">
-        <v>0</v>
-      </c>
-      <c r="I180" s="16">
+      <c r="B180" s="13">
+        <v>1</v>
+      </c>
+      <c r="C180" s="13">
+        <v>3</v>
+      </c>
+      <c r="D180" s="13">
+        <v>0</v>
+      </c>
+      <c r="E180" s="13">
+        <v>2</v>
+      </c>
+      <c r="F180" s="13">
+        <v>0</v>
+      </c>
+      <c r="G180" s="13">
+        <v>1</v>
+      </c>
+      <c r="H180" s="13">
+        <v>0</v>
+      </c>
+      <c r="I180" s="13">
         <v>12</v>
       </c>
-      <c r="J180" s="16">
-        <v>0</v>
-      </c>
-      <c r="K180" s="17">
+      <c r="J180" s="13">
+        <v>0</v>
+      </c>
+      <c r="K180" s="14">
         <v>0.63160000000000005</v>
       </c>
-      <c r="L180" s="16"/>
+      <c r="L180" s="13"/>
       <c r="N180" t="s">
         <v>16</v>
       </c>
@@ -10010,41 +10047,41 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A181" s="16" t="s">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A181" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B181" s="16">
-        <v>0</v>
-      </c>
-      <c r="C181" s="16">
-        <v>0</v>
-      </c>
-      <c r="D181" s="16">
-        <v>0</v>
-      </c>
-      <c r="E181" s="16">
-        <v>3</v>
-      </c>
-      <c r="F181" s="16">
-        <v>0</v>
-      </c>
-      <c r="G181" s="16">
-        <v>0</v>
-      </c>
-      <c r="H181" s="16">
-        <v>1</v>
-      </c>
-      <c r="I181" s="16">
-        <v>0</v>
-      </c>
-      <c r="J181" s="16">
+      <c r="B181" s="13">
+        <v>0</v>
+      </c>
+      <c r="C181" s="13">
+        <v>0</v>
+      </c>
+      <c r="D181" s="13">
+        <v>0</v>
+      </c>
+      <c r="E181" s="13">
+        <v>3</v>
+      </c>
+      <c r="F181" s="13">
+        <v>0</v>
+      </c>
+      <c r="G181" s="13">
+        <v>0</v>
+      </c>
+      <c r="H181" s="13">
+        <v>1</v>
+      </c>
+      <c r="I181" s="13">
+        <v>0</v>
+      </c>
+      <c r="J181" s="13">
         <v>15</v>
       </c>
-      <c r="K181" s="17">
+      <c r="K181" s="14">
         <v>0.78949999999999998</v>
       </c>
-      <c r="L181" s="16"/>
+      <c r="L181" s="13"/>
       <c r="N181" t="s">
         <v>11</v>
       </c>
@@ -10079,39 +10116,39 @@
         <v>0.27779999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A182" s="16" t="s">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A182" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B182" s="17">
+      <c r="B182" s="14">
         <v>0.77270000000000005</v>
       </c>
-      <c r="C182" s="17">
+      <c r="C182" s="14">
         <v>0.63639999999999997</v>
       </c>
-      <c r="D182" s="17">
+      <c r="D182" s="14">
         <v>0.88639999999999997</v>
       </c>
-      <c r="E182" s="17">
+      <c r="E182" s="14">
         <v>0.56520000000000004</v>
       </c>
-      <c r="F182" s="17">
+      <c r="F182" s="14">
         <v>0.76</v>
       </c>
-      <c r="G182" s="17">
+      <c r="G182" s="14">
         <v>0.89470000000000005</v>
       </c>
-      <c r="H182" s="17">
+      <c r="H182" s="14">
         <v>0.92310000000000003</v>
       </c>
-      <c r="I182" s="17">
+      <c r="I182" s="14">
         <v>0.8</v>
       </c>
-      <c r="J182" s="17">
+      <c r="J182" s="14">
         <v>0.71430000000000005</v>
       </c>
-      <c r="K182" s="16"/>
-      <c r="L182" s="17">
+      <c r="K182" s="13"/>
+      <c r="L182" s="14">
         <f>POWER(B182*C182*D182*E182*F182*G182*H182*I182*J182,1/9)</f>
         <v>0.76369575738813866</v>
       </c>
@@ -10150,9 +10187,9 @@
         <v>0.5612190412242728</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -10166,10 +10203,13 @@
       <c r="N184" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z184" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -10181,12 +10221,15 @@
       <c r="I185" s="13"/>
       <c r="J185" s="13"/>
       <c r="N185" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -10198,33 +10241,35 @@
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
       <c r="N186" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
         <v>5</v>
       </c>
-      <c r="F187" s="13" t="s">
+      <c r="F187" t="s">
         <v>6</v>
       </c>
-      <c r="G187" s="13" t="s">
+      <c r="G187" t="s">
         <v>7</v>
       </c>
-      <c r="H187" s="13" t="s">
+      <c r="H187" t="s">
         <v>8</v>
       </c>
-      <c r="I187" s="13" t="s">
+      <c r="I187" t="s">
         <v>10</v>
       </c>
       <c r="J187" s="13" t="s">
@@ -10257,47 +10302,74 @@
       <c r="W187" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A188" s="13" t="s">
+      <c r="AA187" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="13">
-        <v>21</v>
-      </c>
-      <c r="C188" s="13">
+      <c r="B188">
+        <v>19</v>
+      </c>
+      <c r="C188">
         <v>4</v>
       </c>
-      <c r="D188" s="13">
-        <v>0</v>
-      </c>
-      <c r="E188" s="13">
-        <v>1</v>
-      </c>
-      <c r="F188" s="13">
-        <v>0</v>
-      </c>
-      <c r="G188" s="13">
-        <v>0</v>
-      </c>
-      <c r="H188" s="13">
-        <v>0</v>
-      </c>
-      <c r="I188" s="14">
-        <v>0.80769999999999997</v>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" s="5">
+        <v>0.76</v>
       </c>
       <c r="J188" s="13"/>
       <c r="N188" t="s">
         <v>15</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P188">
         <v>2</v>
       </c>
       <c r="Q188">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R188">
         <v>0</v>
@@ -10309,38 +10381,65 @@
         <v>0</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V188" s="5">
-        <v>0.36359999999999998</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A189" s="13" t="s">
+        <v>0.2727</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA188">
+        <v>3</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+      <c r="AC188">
+        <v>0</v>
+      </c>
+      <c r="AD188">
+        <v>0</v>
+      </c>
+      <c r="AE188">
+        <v>0</v>
+      </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
+      <c r="AH188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>12</v>
       </c>
-      <c r="B189" s="13">
-        <v>0</v>
-      </c>
-      <c r="C189" s="13">
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
         <v>15</v>
       </c>
-      <c r="D189" s="13">
-        <v>0</v>
-      </c>
-      <c r="E189" s="13">
-        <v>0</v>
-      </c>
-      <c r="F189" s="13">
-        <v>0</v>
-      </c>
-      <c r="G189" s="13">
-        <v>0</v>
-      </c>
-      <c r="H189" s="13">
-        <v>0</v>
-      </c>
-      <c r="I189" s="14">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189" s="5">
         <v>1</v>
       </c>
       <c r="J189" s="13"/>
@@ -10351,13 +10450,13 @@
         <v>0</v>
       </c>
       <c r="P189">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S189">
         <v>0</v>
@@ -10366,38 +10465,65 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V189" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>1</v>
+      </c>
+      <c r="AC189">
+        <v>0</v>
+      </c>
+      <c r="AD189">
+        <v>0</v>
+      </c>
+      <c r="AE189">
+        <v>0</v>
+      </c>
+      <c r="AF189">
+        <v>1</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>13</v>
       </c>
-      <c r="B190" s="13">
-        <v>0</v>
-      </c>
-      <c r="C190" s="13">
-        <v>0</v>
-      </c>
-      <c r="D190" s="13">
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
         <v>37</v>
       </c>
-      <c r="E190" s="13">
-        <v>2</v>
-      </c>
-      <c r="F190" s="13">
-        <v>0</v>
-      </c>
-      <c r="G190" s="13">
-        <v>0</v>
-      </c>
-      <c r="H190" s="13">
-        <v>0</v>
-      </c>
-      <c r="I190" s="14">
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" s="5">
         <v>0.94869999999999999</v>
       </c>
       <c r="J190" s="13"/>
@@ -10408,13 +10534,13 @@
         <v>0</v>
       </c>
       <c r="P190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q190">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S190">
         <v>0</v>
@@ -10426,36 +10552,63 @@
         <v>0</v>
       </c>
       <c r="V190" s="5">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A191" s="13" t="s">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="Z190" t="s">
         <v>15</v>
       </c>
-      <c r="B191" s="13">
-        <v>1</v>
-      </c>
-      <c r="C191" s="13">
-        <v>0</v>
-      </c>
-      <c r="D191" s="13">
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>1</v>
+      </c>
+      <c r="AC190">
+        <v>1</v>
+      </c>
+      <c r="AD190">
+        <v>0</v>
+      </c>
+      <c r="AE190">
+        <v>0</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
         <v>5</v>
       </c>
-      <c r="E191" s="13">
+      <c r="E191">
         <v>22</v>
       </c>
-      <c r="F191" s="13">
-        <v>0</v>
-      </c>
-      <c r="G191" s="13">
-        <v>1</v>
-      </c>
-      <c r="H191" s="13">
-        <v>0</v>
-      </c>
-      <c r="I191" s="14">
-        <v>0.75860000000000005</v>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191" s="5">
+        <v>0.66669999999999996</v>
       </c>
       <c r="J191" s="13"/>
       <c r="N191" t="s">
@@ -10471,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="R191">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S191">
         <v>0</v>
@@ -10485,34 +10638,61 @@
       <c r="V191" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A192" s="13" t="s">
+      <c r="Z191" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>0</v>
+      </c>
+      <c r="AC191">
+        <v>2</v>
+      </c>
+      <c r="AD191">
+        <v>3</v>
+      </c>
+      <c r="AE191">
+        <v>0</v>
+      </c>
+      <c r="AF191">
+        <v>0</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>16</v>
       </c>
-      <c r="B192" s="13">
-        <v>0</v>
-      </c>
-      <c r="C192" s="13">
-        <v>0</v>
-      </c>
-      <c r="D192" s="13">
-        <v>0</v>
-      </c>
-      <c r="E192" s="13">
-        <v>0</v>
-      </c>
-      <c r="F192" s="13">
-        <v>18</v>
-      </c>
-      <c r="G192" s="13">
-        <v>0</v>
-      </c>
-      <c r="H192" s="13">
-        <v>0</v>
-      </c>
-      <c r="I192" s="14">
-        <v>1</v>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>17</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" s="5">
+        <v>0.89470000000000005</v>
       </c>
       <c r="J192" s="13"/>
       <c r="N192" t="s">
@@ -10522,13 +10702,13 @@
         <v>0</v>
       </c>
       <c r="P192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S192">
         <v>3</v>
@@ -10537,39 +10717,66 @@
         <v>0</v>
       </c>
       <c r="U192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V192" s="5">
-        <v>0.21429999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A193" s="13" t="s">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <v>0</v>
+      </c>
+      <c r="AC192">
+        <v>0</v>
+      </c>
+      <c r="AD192">
+        <v>0</v>
+      </c>
+      <c r="AE192">
+        <v>3</v>
+      </c>
+      <c r="AF192">
+        <v>1</v>
+      </c>
+      <c r="AG192">
+        <v>0</v>
+      </c>
+      <c r="AH192" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>17</v>
       </c>
-      <c r="B193" s="13">
-        <v>0</v>
-      </c>
-      <c r="C193" s="13">
-        <v>0</v>
-      </c>
-      <c r="D193" s="13">
-        <v>1</v>
-      </c>
-      <c r="E193" s="13">
-        <v>0</v>
-      </c>
-      <c r="F193" s="13">
-        <v>1</v>
-      </c>
-      <c r="G193" s="13">
-        <v>38</v>
-      </c>
-      <c r="H193" s="13">
-        <v>0</v>
-      </c>
-      <c r="I193" s="14">
-        <v>0.95</v>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193">
+        <v>36</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" s="5">
+        <v>0.92310000000000003</v>
       </c>
       <c r="J193" s="13"/>
       <c r="N193" t="s">
@@ -10599,50 +10806,77 @@
       <c r="V193" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A194" s="13" t="s">
+      <c r="Z193" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>0</v>
+      </c>
+      <c r="AD193">
+        <v>0</v>
+      </c>
+      <c r="AE193">
+        <v>0</v>
+      </c>
+      <c r="AF193">
+        <v>1</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>18</v>
       </c>
-      <c r="B194" s="13">
-        <v>0</v>
-      </c>
-      <c r="C194" s="13">
-        <v>3</v>
-      </c>
-      <c r="D194" s="13">
-        <v>1</v>
-      </c>
-      <c r="E194" s="13">
-        <v>0</v>
-      </c>
-      <c r="F194" s="13">
-        <v>0</v>
-      </c>
-      <c r="G194" s="13">
-        <v>0</v>
-      </c>
-      <c r="H194" s="13">
-        <v>15</v>
-      </c>
-      <c r="I194" s="14">
-        <v>0.78949999999999998</v>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>12</v>
+      </c>
+      <c r="I194" s="5">
+        <v>0.8</v>
       </c>
       <c r="J194" s="14"/>
       <c r="N194" t="s">
         <v>11</v>
       </c>
       <c r="O194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P194">
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S194">
         <v>0</v>
@@ -10651,57 +10885,84 @@
         <v>0</v>
       </c>
       <c r="U194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V194" s="5">
-        <v>0.4</v>
+        <v>0.4118</v>
       </c>
       <c r="W194" s="5"/>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A195" s="13" t="s">
+      <c r="Z194" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>1</v>
+      </c>
+      <c r="AC194">
+        <v>0</v>
+      </c>
+      <c r="AD194">
+        <v>0</v>
+      </c>
+      <c r="AE194">
+        <v>0</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>3</v>
+      </c>
+      <c r="AH194" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AI194" s="5"/>
+    </row>
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>20</v>
       </c>
-      <c r="B195" s="14">
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="C195" s="14">
+      <c r="B195" s="5">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="C195" s="5">
         <v>0.68179999999999996</v>
       </c>
-      <c r="D195" s="14">
+      <c r="D195" s="5">
         <v>0.84089999999999998</v>
       </c>
-      <c r="E195" s="14">
+      <c r="E195" s="5">
         <v>0.88</v>
       </c>
-      <c r="F195" s="14">
-        <v>0.94740000000000002</v>
-      </c>
-      <c r="G195" s="14">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="H195" s="14">
-        <v>1</v>
-      </c>
-      <c r="I195" s="13"/>
+      <c r="F195" s="5">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="G195" s="5">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="H195" s="5">
+        <v>0.85709999999999997</v>
+      </c>
       <c r="J195" s="14">
         <f>POWER(B195*C195*D195*E195*F195*G195*H195,1/7)</f>
-        <v>0.89064446411070852</v>
+        <v>0.8453217595779664</v>
       </c>
       <c r="N195" t="s">
         <v>20</v>
       </c>
       <c r="O195" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P195" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q195" s="5">
         <v>0.5</v>
       </c>
-      <c r="P195" s="5">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="Q195" s="5">
-        <v>0.63639999999999997</v>
-      </c>
       <c r="R195" s="5">
-        <v>0.47060000000000002</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="S195" s="5">
         <v>1</v>
@@ -10710,14 +10971,42 @@
         <v>1</v>
       </c>
       <c r="U195" s="5">
-        <v>0.66669999999999996</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="W195" s="5">
         <f>POWER(O195*P195*Q195*R195*S195*T195*U195,1/7)</f>
-        <v>0.67902782749182222</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.67573957814574792</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA195" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB195" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AC195" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AD195" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE195" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF195" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AG195" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI195" s="5">
+        <f>POWER(AA195*AB195*AC195*AD195*AE195*AF195*AG195,1/7)</f>
+        <v>0.62445457060766896</v>
+      </c>
+    </row>
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B196">
         <f>SUM(B188:B194)</f>
         <v>22</v>
@@ -10744,11 +11033,11 @@
       </c>
       <c r="H196">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J196">
         <f>SUM(B196:H196)</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O196">
         <f>SUM(O188:O194)</f>
@@ -10781,6 +11070,959 @@
       <c r="W196">
         <f>SUM(O196:U196)</f>
         <v>86</v>
+      </c>
+      <c r="AA196">
+        <f>SUM(AA188:AA194)</f>
+        <v>3</v>
+      </c>
+      <c r="AB196">
+        <f t="shared" ref="AB196:AG196" si="8">SUM(AB188:AB194)</f>
+        <v>3</v>
+      </c>
+      <c r="AC196">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AD196">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AE196">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AF196">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AG196">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AI196">
+        <f>SUM(AA196:AG196)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
+      <c r="I199" s="22"/>
+      <c r="J199" s="22"/>
+      <c r="N199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z199" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A200" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
+      <c r="J200" s="22"/>
+      <c r="N200" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A201" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="22"/>
+      <c r="J201" s="22"/>
+      <c r="N201" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A202" s="22"/>
+      <c r="B202" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H202" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J202" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O202" t="s">
+        <v>5</v>
+      </c>
+      <c r="P202" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>3</v>
+      </c>
+      <c r="R202" t="s">
+        <v>2</v>
+      </c>
+      <c r="S202" t="s">
+        <v>8</v>
+      </c>
+      <c r="T202" t="s">
+        <v>6</v>
+      </c>
+      <c r="U202" t="s">
+        <v>1</v>
+      </c>
+      <c r="V202" t="s">
+        <v>10</v>
+      </c>
+      <c r="W202" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A203" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" s="22">
+        <v>20</v>
+      </c>
+      <c r="C203" s="22">
+        <v>1</v>
+      </c>
+      <c r="D203" s="22">
+        <v>1</v>
+      </c>
+      <c r="E203" s="22">
+        <v>0</v>
+      </c>
+      <c r="F203" s="22">
+        <v>0</v>
+      </c>
+      <c r="G203" s="22">
+        <v>0</v>
+      </c>
+      <c r="H203" s="22">
+        <v>0</v>
+      </c>
+      <c r="I203" s="23">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="J203" s="22"/>
+      <c r="N203" t="s">
+        <v>15</v>
+      </c>
+      <c r="O203">
+        <v>5</v>
+      </c>
+      <c r="P203">
+        <v>2</v>
+      </c>
+      <c r="Q203">
+        <v>2</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203" s="5">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA203">
+        <v>2</v>
+      </c>
+      <c r="AB203">
+        <v>0</v>
+      </c>
+      <c r="AC203">
+        <v>0</v>
+      </c>
+      <c r="AD203">
+        <v>0</v>
+      </c>
+      <c r="AE203">
+        <v>0</v>
+      </c>
+      <c r="AF203">
+        <v>0</v>
+      </c>
+      <c r="AG203">
+        <v>0</v>
+      </c>
+      <c r="AH203" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A204" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="22">
+        <v>0</v>
+      </c>
+      <c r="C204" s="22">
+        <v>19</v>
+      </c>
+      <c r="D204" s="22">
+        <v>0</v>
+      </c>
+      <c r="E204" s="22">
+        <v>0</v>
+      </c>
+      <c r="F204" s="22">
+        <v>0</v>
+      </c>
+      <c r="G204" s="22">
+        <v>0</v>
+      </c>
+      <c r="H204" s="22">
+        <v>1</v>
+      </c>
+      <c r="I204" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="J204" s="22"/>
+      <c r="N204" t="s">
+        <v>17</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>17</v>
+      </c>
+      <c r="Q204">
+        <v>2</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>1</v>
+      </c>
+      <c r="V204" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>1</v>
+      </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
+      <c r="AG204">
+        <v>0</v>
+      </c>
+      <c r="AH204" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A205" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="22">
+        <v>0</v>
+      </c>
+      <c r="C205" s="22">
+        <v>0</v>
+      </c>
+      <c r="D205" s="22">
+        <v>40</v>
+      </c>
+      <c r="E205" s="22">
+        <v>2</v>
+      </c>
+      <c r="F205" s="22">
+        <v>0</v>
+      </c>
+      <c r="G205" s="22">
+        <v>0</v>
+      </c>
+      <c r="H205" s="22">
+        <v>0</v>
+      </c>
+      <c r="I205" s="23">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="J205" s="22"/>
+      <c r="N205" t="s">
+        <v>13</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>1</v>
+      </c>
+      <c r="Q205">
+        <v>13</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>1</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
+      <c r="AC205">
+        <v>2</v>
+      </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
+        <v>0</v>
+      </c>
+      <c r="AG205">
+        <v>0</v>
+      </c>
+      <c r="AH205" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A206" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="22">
+        <v>2</v>
+      </c>
+      <c r="C206" s="22">
+        <v>0</v>
+      </c>
+      <c r="D206" s="22">
+        <v>2</v>
+      </c>
+      <c r="E206" s="22">
+        <v>23</v>
+      </c>
+      <c r="F206" s="22">
+        <v>0</v>
+      </c>
+      <c r="G206" s="22">
+        <v>1</v>
+      </c>
+      <c r="H206" s="22">
+        <v>2</v>
+      </c>
+      <c r="I206" s="23">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="J206" s="22"/>
+      <c r="N206" t="s">
+        <v>12</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>1</v>
+      </c>
+      <c r="R206">
+        <v>10</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206" s="5">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>1</v>
+      </c>
+      <c r="AD206">
+        <v>2</v>
+      </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
+      <c r="AH206" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A207" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B207" s="22">
+        <v>0</v>
+      </c>
+      <c r="C207" s="22">
+        <v>0</v>
+      </c>
+      <c r="D207" s="22">
+        <v>0</v>
+      </c>
+      <c r="E207" s="22">
+        <v>0</v>
+      </c>
+      <c r="F207" s="22">
+        <v>19</v>
+      </c>
+      <c r="G207" s="22">
+        <v>3</v>
+      </c>
+      <c r="H207" s="22">
+        <v>0</v>
+      </c>
+      <c r="I207" s="23">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="J207" s="22"/>
+      <c r="N207" t="s">
+        <v>18</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>2</v>
+      </c>
+      <c r="Q207">
+        <v>1</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>3</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>1</v>
+      </c>
+      <c r="V207" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA207">
+        <v>1</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207">
+        <v>0</v>
+      </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
+      <c r="AE207">
+        <v>3</v>
+      </c>
+      <c r="AF207">
+        <v>1</v>
+      </c>
+      <c r="AG207">
+        <v>0</v>
+      </c>
+      <c r="AH207" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A208" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="22">
+        <v>0</v>
+      </c>
+      <c r="C208" s="22">
+        <v>1</v>
+      </c>
+      <c r="D208" s="22">
+        <v>0</v>
+      </c>
+      <c r="E208" s="22">
+        <v>0</v>
+      </c>
+      <c r="F208" s="22">
+        <v>0</v>
+      </c>
+      <c r="G208" s="22">
+        <v>35</v>
+      </c>
+      <c r="H208" s="22">
+        <v>0</v>
+      </c>
+      <c r="I208" s="23">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="J208" s="22"/>
+      <c r="N208" t="s">
+        <v>16</v>
+      </c>
+      <c r="O208">
+        <v>1</v>
+      </c>
+      <c r="P208">
+        <v>2</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>0</v>
+      </c>
+      <c r="AD208">
+        <v>0</v>
+      </c>
+      <c r="AE208">
+        <v>0</v>
+      </c>
+      <c r="AF208">
+        <v>1</v>
+      </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
+      <c r="AH208" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A209" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="22">
+        <v>0</v>
+      </c>
+      <c r="C209" s="22">
+        <v>1</v>
+      </c>
+      <c r="D209" s="22">
+        <v>1</v>
+      </c>
+      <c r="E209" s="22">
+        <v>0</v>
+      </c>
+      <c r="F209" s="22">
+        <v>0</v>
+      </c>
+      <c r="G209" s="22">
+        <v>0</v>
+      </c>
+      <c r="H209" s="22">
+        <v>11</v>
+      </c>
+      <c r="I209" s="23">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="J209" s="23"/>
+      <c r="N209" t="s">
+        <v>11</v>
+      </c>
+      <c r="O209">
+        <v>2</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>3</v>
+      </c>
+      <c r="R209">
+        <v>4</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>7</v>
+      </c>
+      <c r="V209" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="W209" s="5"/>
+      <c r="Z209" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>1</v>
+      </c>
+      <c r="AC209">
+        <v>0</v>
+      </c>
+      <c r="AD209">
+        <v>1</v>
+      </c>
+      <c r="AE209">
+        <v>0</v>
+      </c>
+      <c r="AF209">
+        <v>1</v>
+      </c>
+      <c r="AG209">
+        <v>3</v>
+      </c>
+      <c r="AH209" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AI209" s="5"/>
+    </row>
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A210" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="23">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="C210" s="23">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="D210" s="23">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="E210" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="F210" s="23">
+        <v>1</v>
+      </c>
+      <c r="G210" s="23">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="H210" s="23">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="I210" s="22"/>
+      <c r="J210" s="23">
+        <f>POWER(B210*C210*D210*E210*F210*G210*H210,1/7)</f>
+        <v>0.89582628101178163</v>
+      </c>
+      <c r="N210" t="s">
+        <v>20</v>
+      </c>
+      <c r="O210" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P210" s="5">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="Q210" s="5">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="R210" s="5">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="S210" s="5">
+        <v>1</v>
+      </c>
+      <c r="T210" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="U210" s="5">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="W210" s="5">
+        <f>POWER(O210*P210*Q210*R210*S210*T210*U210,1/7)</f>
+        <v>0.69684072402625363</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA210" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AB210" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AC210" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AD210" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AE210" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF210" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AG210" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI210" s="5">
+        <f>POWER(AA210*AB210*AC210*AD210*AE210*AF210*AG210,1/7)</f>
+        <v>0.61405723978594917</v>
+      </c>
+    </row>
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A211" s="22"/>
+      <c r="B211" s="22">
+        <f>SUM(B203:B209)</f>
+        <v>22</v>
+      </c>
+      <c r="C211" s="22">
+        <f t="shared" ref="C211:H211" si="9">SUM(C203:C209)</f>
+        <v>22</v>
+      </c>
+      <c r="D211" s="22">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="E211" s="22">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="F211" s="22">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="G211" s="22">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="H211" s="22">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="I211" s="22"/>
+      <c r="J211" s="22">
+        <f>SUM(B211:H211)</f>
+        <v>185</v>
+      </c>
+      <c r="O211">
+        <f>SUM(O203:O209)</f>
+        <v>8</v>
+      </c>
+      <c r="P211">
+        <f t="shared" ref="P211:U211" si="10">SUM(P203:P209)</f>
+        <v>24</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="T211">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="U211">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="W211">
+        <f>SUM(O211:U211)</f>
+        <v>86</v>
+      </c>
+      <c r="AA211">
+        <f>SUM(AA203:AA209)</f>
+        <v>3</v>
+      </c>
+      <c r="AB211">
+        <f t="shared" ref="AB211:AG211" si="11">SUM(AB203:AB209)</f>
+        <v>3</v>
+      </c>
+      <c r="AC211">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AD211">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AE211">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AF211">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AG211">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AI211">
+        <f>SUM(AA211:AG211)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -10792,8 +12034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA563BA-F5A1-8545-ABFA-5E0D8AE202BE}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10803,8 +12045,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>215</v>
+      <c r="A1" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>25</v>
@@ -10812,18 +12054,18 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -11659,27 +12901,27 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>229</v>
+      <c r="A16" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>220</v>
+      <c r="A17" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="N17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -11707,7 +12949,7 @@
       <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O19" t="s">
@@ -11734,7 +12976,7 @@
       <c r="V19" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11766,7 +13008,7 @@
       <c r="I20" s="5">
         <v>0.73080000000000001</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="13"/>
       <c r="N20" t="s">
         <v>15</v>
       </c>
@@ -11794,7 +13036,7 @@
       <c r="V20" s="5">
         <v>0.5</v>
       </c>
-      <c r="W20" s="16"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -11824,7 +13066,7 @@
       <c r="I21" s="5">
         <v>0.78949999999999998</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="13"/>
       <c r="N21" t="s">
         <v>17</v>
       </c>
@@ -11852,7 +13094,7 @@
       <c r="V21" s="5">
         <v>1</v>
       </c>
-      <c r="W21" s="16"/>
+      <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -11882,7 +13124,7 @@
       <c r="I22" s="5">
         <v>0.84440000000000004</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="13"/>
       <c r="N22" t="s">
         <v>13</v>
       </c>
@@ -11910,7 +13152,7 @@
       <c r="V22" s="5">
         <v>0.9</v>
       </c>
-      <c r="W22" s="16"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -11940,7 +13182,7 @@
       <c r="I23" s="5">
         <v>0.72729999999999995</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="13"/>
       <c r="N23" t="s">
         <v>12</v>
       </c>
@@ -11968,7 +13210,7 @@
       <c r="V23" s="5">
         <v>0.78949999999999998</v>
       </c>
-      <c r="W23" s="16"/>
+      <c r="W23" s="13"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -11998,7 +13240,7 @@
       <c r="I24" s="5">
         <v>0.78259999999999996</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="13"/>
       <c r="N24" t="s">
         <v>18</v>
       </c>
@@ -12026,7 +13268,7 @@
       <c r="V24" s="5">
         <v>0.5</v>
       </c>
-      <c r="W24" s="16"/>
+      <c r="W24" s="13"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -12056,7 +13298,7 @@
       <c r="I25" s="5">
         <v>0.97060000000000002</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="13"/>
       <c r="N25" t="s">
         <v>16</v>
       </c>
@@ -12084,7 +13326,7 @@
       <c r="V25" s="5">
         <v>0.42859999999999998</v>
       </c>
-      <c r="W25" s="16"/>
+      <c r="W25" s="13"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -12114,7 +13356,7 @@
       <c r="I26" s="5">
         <v>0.64710000000000001</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="14"/>
       <c r="N26" t="s">
         <v>11</v>
       </c>
@@ -12142,7 +13384,7 @@
       <c r="V26" s="5">
         <v>0.8</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="14"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -12169,7 +13411,7 @@
       <c r="H27" s="5">
         <v>0.73329999999999995</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="14">
         <f>POWER(B27*C27*D27*E27*F27*G27*H27,1/7)</f>
         <v>0.78957411737900218</v>
       </c>
@@ -12197,7 +13439,7 @@
       <c r="U27" s="5">
         <v>0.88890000000000002</v>
       </c>
-      <c r="W27" s="17">
+      <c r="W27" s="14">
         <f>POWER(O27*P27*Q27*R27*S27*T27*U27,1/7)</f>
         <v>0.7830355641320309</v>
       </c>
@@ -12269,83 +13511,83 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="A30" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
       <c r="N30" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="A31" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="A32" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="19" t="s">
         <v>29</v>
       </c>
       <c r="O33" t="s">
@@ -12372,39 +13614,39 @@
       <c r="V33" t="s">
         <v>10</v>
       </c>
-      <c r="W33" s="16" t="s">
+      <c r="W33" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="19">
         <v>19</v>
       </c>
-      <c r="C34" s="22">
-        <v>0</v>
-      </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
-        <v>1</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23">
+      <c r="C34" s="19">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
         <v>0.95</v>
       </c>
-      <c r="J34" s="22"/>
+      <c r="J34" s="19"/>
       <c r="N34" t="s">
         <v>15</v>
       </c>
@@ -12432,37 +13674,37 @@
       <c r="V34" s="5">
         <v>0.625</v>
       </c>
-      <c r="W34" s="16"/>
+      <c r="W34" s="13"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="22">
-        <v>0</v>
-      </c>
-      <c r="C35" s="22">
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19">
         <v>18</v>
       </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
-        <v>2</v>
-      </c>
-      <c r="I35" s="23">
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <v>2</v>
+      </c>
+      <c r="I35" s="20">
         <v>0.9</v>
       </c>
-      <c r="J35" s="22"/>
+      <c r="J35" s="19"/>
       <c r="N35" t="s">
         <v>17</v>
       </c>
@@ -12490,37 +13732,37 @@
       <c r="V35" s="5">
         <v>0.875</v>
       </c>
-      <c r="W35" s="16"/>
+      <c r="W35" s="13"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="22">
-        <v>1</v>
-      </c>
-      <c r="C36" s="22">
-        <v>1</v>
-      </c>
-      <c r="D36" s="22">
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19">
         <v>41</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="19">
         <v>6</v>
       </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="22">
-        <v>1</v>
-      </c>
-      <c r="H36" s="22">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
+      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
         <v>0.82</v>
       </c>
-      <c r="J36" s="22"/>
+      <c r="J36" s="19"/>
       <c r="N36" t="s">
         <v>13</v>
       </c>
@@ -12548,37 +13790,37 @@
       <c r="V36" s="5">
         <v>0.94440000000000002</v>
       </c>
-      <c r="W36" s="16"/>
+      <c r="W36" s="13"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="22">
-        <v>1</v>
-      </c>
-      <c r="C37" s="22">
-        <v>0</v>
-      </c>
-      <c r="D37" s="22">
-        <v>3</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3</v>
+      </c>
+      <c r="E37" s="19">
         <v>17</v>
       </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-      <c r="G37" s="22">
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
-        <v>1</v>
-      </c>
-      <c r="I37" s="23">
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="20">
         <v>0.77270000000000005</v>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="19"/>
       <c r="N37" t="s">
         <v>12</v>
       </c>
@@ -12606,37 +13848,37 @@
       <c r="V37" s="5">
         <v>0.94440000000000002</v>
       </c>
-      <c r="W37" s="16"/>
+      <c r="W37" s="13"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="22">
-        <v>0</v>
-      </c>
-      <c r="C38" s="22">
-        <v>0</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0</v>
-      </c>
-      <c r="E38" s="22">
-        <v>1</v>
-      </c>
-      <c r="F38" s="22">
+      <c r="B38" s="19">
+        <v>0</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19">
         <v>17</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="19">
         <v>6</v>
       </c>
-      <c r="H38" s="22">
-        <v>0</v>
-      </c>
-      <c r="I38" s="23">
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20">
         <v>0.70830000000000004</v>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="19"/>
       <c r="N38" t="s">
         <v>18</v>
       </c>
@@ -12664,37 +13906,37 @@
       <c r="V38" s="5">
         <v>0.75</v>
       </c>
-      <c r="W38" s="16"/>
+      <c r="W38" s="13"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="22">
-        <v>0</v>
-      </c>
-      <c r="C39" s="22">
-        <v>0</v>
-      </c>
-      <c r="D39" s="22">
-        <v>0</v>
-      </c>
-      <c r="E39" s="22">
-        <v>0</v>
-      </c>
-      <c r="F39" s="22">
-        <v>2</v>
-      </c>
-      <c r="G39" s="22">
+      <c r="B39" s="19">
+        <v>0</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19">
+        <v>2</v>
+      </c>
+      <c r="G39" s="19">
         <v>32</v>
       </c>
-      <c r="H39" s="22">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23">
+      <c r="H39" s="19">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20">
         <v>0.94120000000000004</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="19"/>
       <c r="N39" t="s">
         <v>16</v>
       </c>
@@ -12722,37 +13964,37 @@
       <c r="V39" s="5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="W39" s="16"/>
+      <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="22">
-        <v>1</v>
-      </c>
-      <c r="C40" s="22">
-        <v>3</v>
-      </c>
-      <c r="D40" s="22">
-        <v>0</v>
-      </c>
-      <c r="E40" s="22">
-        <v>0</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0</v>
-      </c>
-      <c r="G40" s="22">
-        <v>0</v>
-      </c>
-      <c r="H40" s="22">
+      <c r="B40" s="19">
+        <v>1</v>
+      </c>
+      <c r="C40" s="19">
+        <v>3</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
         <v>12</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="20">
         <v>0.75</v>
       </c>
-      <c r="J40" s="23"/>
+      <c r="J40" s="20"/>
       <c r="N40" t="s">
         <v>11</v>
       </c>
@@ -12780,35 +14022,35 @@
       <c r="V40" s="5">
         <v>0.72729999999999995</v>
       </c>
-      <c r="W40" s="17"/>
+      <c r="W40" s="14"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="20">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="20">
         <v>0.81820000000000004</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="20">
         <v>0.93179999999999996</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="20">
         <v>0.68</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="20">
         <v>0.89470000000000005</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="20">
         <v>0.82050000000000001</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="20">
         <v>0.8</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23">
+      <c r="I41" s="19"/>
+      <c r="J41" s="20">
         <f>POWER(B41*C41*D41*E41*F41*G41*H41,1/7)</f>
         <v>0.82626887038200436</v>
       </c>
@@ -12836,43 +14078,43 @@
       <c r="U41" s="5">
         <v>0.88890000000000002</v>
       </c>
-      <c r="W41" s="17">
+      <c r="W41" s="14">
         <f>POWER(O41*P41*Q41*R41*S41*T41*U41,1/7)</f>
         <v>0.82053569348263566</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19">
         <f>SUM(B32:B40)</f>
         <v>22</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="19">
         <f t="shared" ref="C42:H42" si="4">SUM(C32:C40)</f>
         <v>22</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="19">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="19">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="19">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="19">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="19">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22">
+      <c r="I42" s="19"/>
+      <c r="J42" s="19">
         <f>SUM(B42:H42)</f>
         <v>186</v>
       </c>
@@ -12925,8 +14167,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>70</v>
+      <c r="A1" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>25</v>
@@ -12934,18 +14176,18 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -12973,10 +14215,10 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="13"/>
       <c r="M4" t="s">
         <v>5</v>
       </c>
@@ -13001,7 +14243,7 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13033,8 +14275,8 @@
       <c r="I5" s="5">
         <v>0.63639999999999997</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" t="s">
         <v>15</v>
       </c>
@@ -13062,7 +14304,7 @@
       <c r="T5" s="5">
         <v>0.21740000000000001</v>
       </c>
-      <c r="U5" s="16"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -13092,8 +14334,8 @@
       <c r="I6" s="5">
         <v>0.65</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" t="s">
         <v>17</v>
       </c>
@@ -13121,7 +14363,7 @@
       <c r="T6" s="5">
         <v>0.75</v>
       </c>
-      <c r="U6" s="16"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -13151,8 +14393,8 @@
       <c r="I7" s="5">
         <v>0.63639999999999997</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" t="s">
         <v>13</v>
       </c>
@@ -13180,7 +14422,7 @@
       <c r="T7" s="5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="U7" s="16"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -13210,8 +14452,8 @@
       <c r="I8" s="5">
         <v>0.57889999999999997</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
       <c r="L8" t="s">
         <v>12</v>
       </c>
@@ -13239,7 +14481,7 @@
       <c r="T8" s="5">
         <v>0.77780000000000005</v>
       </c>
-      <c r="U8" s="16"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -13269,8 +14511,8 @@
       <c r="I9" s="5">
         <v>0.625</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="L9" t="s">
         <v>18</v>
       </c>
@@ -13298,7 +14540,7 @@
       <c r="T9" s="5">
         <v>0.5</v>
       </c>
-      <c r="U9" s="16"/>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -13328,8 +14570,8 @@
       <c r="I10" s="5">
         <v>0.73170000000000002</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
       <c r="L10" t="s">
         <v>16</v>
       </c>
@@ -13357,7 +14599,7 @@
       <c r="T10" s="5">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -13387,8 +14629,8 @@
       <c r="I11" s="5">
         <v>0.69230000000000003</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" t="s">
         <v>11</v>
       </c>
@@ -13416,7 +14658,7 @@
       <c r="T11" s="5">
         <v>0.54549999999999998</v>
       </c>
-      <c r="U11" s="17"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -13443,11 +14685,11 @@
       <c r="H12" s="5">
         <v>0.6</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <f>POWER(B12*C12*D12*E12*F12*G12*H12,1/7)</f>
         <v>0.61149712114386323</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="14"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -13472,7 +14714,7 @@
       <c r="S12" s="5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="14">
         <f>POWER(M12*N12*O12*P12*Q12*R12*S12,1/7)</f>
         <v>0.48702234532580918</v>
       </c>
@@ -13488,101 +14730,101 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="33" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="L33" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>25</v>
@@ -13590,15 +14832,15 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
         <v>65</v>
@@ -13629,7 +14871,7 @@
       <c r="I38" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M38" t="s">
@@ -13656,7 +14898,7 @@
       <c r="T38" t="s">
         <v>10</v>
       </c>
-      <c r="U38" s="16" t="s">
+      <c r="U38" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13688,7 +14930,7 @@
       <c r="I39" s="5">
         <v>0.63639999999999997</v>
       </c>
-      <c r="J39" s="16"/>
+      <c r="J39" s="13"/>
       <c r="L39" t="s">
         <v>15</v>
       </c>
@@ -13716,7 +14958,7 @@
       <c r="T39" s="5">
         <v>0.625</v>
       </c>
-      <c r="U39" s="16"/>
+      <c r="U39" s="13"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -13746,7 +14988,7 @@
       <c r="I40" s="5">
         <v>0.76470000000000005</v>
       </c>
-      <c r="J40" s="16"/>
+      <c r="J40" s="13"/>
       <c r="L40" t="s">
         <v>17</v>
       </c>
@@ -13774,7 +15016,7 @@
       <c r="T40" s="5">
         <v>0.8</v>
       </c>
-      <c r="U40" s="16"/>
+      <c r="U40" s="13"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -13804,7 +15046,7 @@
       <c r="I41" s="5">
         <v>0.61109999999999998</v>
       </c>
-      <c r="J41" s="16"/>
+      <c r="J41" s="13"/>
       <c r="L41" t="s">
         <v>13</v>
       </c>
@@ -13832,7 +15074,7 @@
       <c r="T41" s="5">
         <v>0.5806</v>
       </c>
-      <c r="U41" s="16"/>
+      <c r="U41" s="13"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -13862,7 +15104,7 @@
       <c r="I42" s="5">
         <v>0.83330000000000004</v>
       </c>
-      <c r="J42" s="16"/>
+      <c r="J42" s="13"/>
       <c r="L42" t="s">
         <v>12</v>
       </c>
@@ -13890,7 +15132,7 @@
       <c r="T42" s="5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="U42" s="16"/>
+      <c r="U42" s="13"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -13920,7 +15162,7 @@
       <c r="I43" s="5">
         <v>0.6</v>
       </c>
-      <c r="J43" s="16"/>
+      <c r="J43" s="13"/>
       <c r="L43" t="s">
         <v>18</v>
       </c>
@@ -13948,7 +15190,7 @@
       <c r="T43" s="5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="U43" s="16"/>
+      <c r="U43" s="13"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -13978,7 +15220,7 @@
       <c r="I44" s="5">
         <v>0.73170000000000002</v>
       </c>
-      <c r="J44" s="16"/>
+      <c r="J44" s="13"/>
       <c r="L44" t="s">
         <v>16</v>
       </c>
@@ -14006,7 +15248,7 @@
       <c r="T44" s="5">
         <v>0.125</v>
       </c>
-      <c r="U44" s="16"/>
+      <c r="U44" s="13"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -14036,7 +15278,7 @@
       <c r="I45" s="5">
         <v>0.57140000000000002</v>
       </c>
-      <c r="J45" s="17"/>
+      <c r="J45" s="14"/>
       <c r="L45" t="s">
         <v>11</v>
       </c>
@@ -14064,7 +15306,7 @@
       <c r="T45" s="5">
         <v>0.6</v>
       </c>
-      <c r="U45" s="17"/>
+      <c r="U45" s="14"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -14091,7 +15333,7 @@
       <c r="H46" s="5">
         <v>0.5333</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="14">
         <f>POWER(B46*C46*D46*E46*F46*G46*H46,1/7)</f>
         <v>0.63971582409563266</v>
       </c>
@@ -14119,177 +15361,177 @@
       <c r="S46" s="5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="U46" s="17">
+      <c r="U46" s="14">
         <f>POWER(M46*N46*O46*P46*Q46*R46*S46,1/7)</f>
         <v>0.53088236592024107</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+    <row r="72" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+    <row r="74" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+    <row r="78" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+    <row r="79" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+    <row r="81" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>117</v>
+      <c r="L81" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>189</v>
+      <c r="A83" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>25</v>
@@ -14297,18 +15539,18 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L84" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L85" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -14336,7 +15578,7 @@
       <c r="I86" t="s">
         <v>10</v>
       </c>
-      <c r="J86" s="16" t="s">
+      <c r="J86" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M86" t="s">
@@ -14363,7 +15605,7 @@
       <c r="T86" t="s">
         <v>10</v>
       </c>
-      <c r="U86" s="16" t="s">
+      <c r="U86" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -14395,7 +15637,7 @@
       <c r="I87" s="5">
         <v>0.42859999999999998</v>
       </c>
-      <c r="J87" s="16"/>
+      <c r="J87" s="13"/>
       <c r="L87" t="s">
         <v>15</v>
       </c>
@@ -14423,7 +15665,7 @@
       <c r="T87" s="5">
         <v>0.3</v>
       </c>
-      <c r="U87" s="16"/>
+      <c r="U87" s="13"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -14453,7 +15695,7 @@
       <c r="I88" s="5">
         <v>0.55559999999999998</v>
       </c>
-      <c r="J88" s="16"/>
+      <c r="J88" s="13"/>
       <c r="L88" t="s">
         <v>17</v>
       </c>
@@ -14481,7 +15723,7 @@
       <c r="T88" s="5">
         <v>0.60709999999999997</v>
       </c>
-      <c r="U88" s="16"/>
+      <c r="U88" s="13"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -14511,7 +15753,7 @@
       <c r="I89" s="5">
         <v>0.63039999999999996</v>
       </c>
-      <c r="J89" s="16"/>
+      <c r="J89" s="13"/>
       <c r="L89" t="s">
         <v>13</v>
       </c>
@@ -14539,7 +15781,7 @@
       <c r="T89" s="5">
         <v>0.52629999999999999</v>
       </c>
-      <c r="U89" s="16"/>
+      <c r="U89" s="13"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -14569,7 +15811,7 @@
       <c r="I90" s="5">
         <v>0.46429999999999999</v>
       </c>
-      <c r="J90" s="16"/>
+      <c r="J90" s="13"/>
       <c r="L90" t="s">
         <v>12</v>
       </c>
@@ -14597,7 +15839,7 @@
       <c r="T90" s="5">
         <v>0.75</v>
       </c>
-      <c r="U90" s="16"/>
+      <c r="U90" s="13"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -14627,7 +15869,7 @@
       <c r="I91" s="5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="J91" s="16"/>
+      <c r="J91" s="13"/>
       <c r="L91" t="s">
         <v>18</v>
       </c>
@@ -14655,7 +15897,7 @@
       <c r="T91" s="5">
         <v>1</v>
       </c>
-      <c r="U91" s="16"/>
+      <c r="U91" s="13"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -14685,7 +15927,7 @@
       <c r="I92" s="5">
         <v>0.56820000000000004</v>
       </c>
-      <c r="J92" s="16"/>
+      <c r="J92" s="13"/>
       <c r="L92" t="s">
         <v>16</v>
       </c>
@@ -14713,7 +15955,7 @@
       <c r="T92" s="5">
         <v>0.2</v>
       </c>
-      <c r="U92" s="16"/>
+      <c r="U92" s="13"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -14743,7 +15985,7 @@
       <c r="I93" s="5">
         <v>0.44440000000000002</v>
       </c>
-      <c r="J93" s="17"/>
+      <c r="J93" s="14"/>
       <c r="L93" t="s">
         <v>11</v>
       </c>
@@ -14771,7 +16013,7 @@
       <c r="T93" s="5">
         <v>0.2727</v>
       </c>
-      <c r="U93" s="17"/>
+      <c r="U93" s="14"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -14798,7 +16040,7 @@
       <c r="H94" s="5">
         <v>0.5333</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J94" s="14">
         <f>POWER(B94*C94*D94*E94*F94*G94*H94,1/7)</f>
         <v>0.4909948452969895</v>
       </c>
@@ -14826,295 +16068,295 @@
       <c r="S94" s="5">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U94" s="17">
+      <c r="U94" s="14">
         <f>POWER(M94*N94*O94*P94*Q94*R94*S94,1/7)</f>
         <v>0.42156783540507042</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
+    <row r="102" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+    <row r="103" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+    <row r="104" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+    <row r="105" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+    <row r="106" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+    <row r="107" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+    <row r="108" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+    <row r="109" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+    <row r="110" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+    <row r="111" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+    <row r="112" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+    <row r="113" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+    <row r="114" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+    <row r="115" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+    <row r="116" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+    <row r="117" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+    <row r="118" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+    <row r="119" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+    <row r="120" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
+    <row r="121" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+    <row r="122" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+    <row r="123" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+    <row r="124" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+    <row r="125" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+    <row r="126" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
+    <row r="127" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+    <row r="128" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+    <row r="129" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+    <row r="130" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+    <row r="131" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+    <row r="132" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+    <row r="133" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+    <row r="134" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+    <row r="135" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+    <row r="136" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
+    <row r="137" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+    <row r="138" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+    <row r="139" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+    <row r="140" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
+    <row r="141" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+    <row r="142" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+    <row r="143" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
+    <row r="144" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
+    <row r="145" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+    <row r="146" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
+    <row r="147" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
+    <row r="148" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
+    <row r="149" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
+    <row r="150" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+    <row r="151" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="153" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
-        <v>190</v>
+      <c r="A153" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>25</v>
@@ -15122,18 +16364,18 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L154" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L155" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
@@ -15161,7 +16403,7 @@
       <c r="I156" t="s">
         <v>10</v>
       </c>
-      <c r="J156" s="16" t="s">
+      <c r="J156" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M156" t="s">
@@ -15188,7 +16430,7 @@
       <c r="T156" t="s">
         <v>10</v>
       </c>
-      <c r="U156" s="16" t="s">
+      <c r="U156" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -15220,7 +16462,7 @@
       <c r="I157" s="5">
         <v>0.25</v>
       </c>
-      <c r="J157" s="16"/>
+      <c r="J157" s="13"/>
       <c r="L157" t="s">
         <v>15</v>
       </c>
@@ -15248,7 +16490,7 @@
       <c r="T157" s="5">
         <v>0.3</v>
       </c>
-      <c r="U157" s="16"/>
+      <c r="U157" s="13"/>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -15278,7 +16520,7 @@
       <c r="I158" s="5">
         <v>0.59260000000000002</v>
       </c>
-      <c r="J158" s="16"/>
+      <c r="J158" s="13"/>
       <c r="L158" t="s">
         <v>17</v>
       </c>
@@ -15306,7 +16548,7 @@
       <c r="T158" s="5">
         <v>0.63329999999999997</v>
       </c>
-      <c r="U158" s="16"/>
+      <c r="U158" s="13"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -15336,7 +16578,7 @@
       <c r="I159" s="5">
         <v>0.62219999999999998</v>
       </c>
-      <c r="J159" s="16"/>
+      <c r="J159" s="13"/>
       <c r="L159" t="s">
         <v>13</v>
       </c>
@@ -15364,7 +16606,7 @@
       <c r="T159" s="5">
         <v>0.6875</v>
       </c>
-      <c r="U159" s="16"/>
+      <c r="U159" s="13"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -15394,7 +16636,7 @@
       <c r="I160" s="5">
         <v>0.48149999999999998</v>
       </c>
-      <c r="J160" s="16"/>
+      <c r="J160" s="13"/>
       <c r="L160" t="s">
         <v>12</v>
       </c>
@@ -15422,7 +16664,7 @@
       <c r="T160" s="5">
         <v>0.83330000000000004</v>
       </c>
-      <c r="U160" s="16"/>
+      <c r="U160" s="13"/>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -15452,7 +16694,7 @@
       <c r="I161" s="5">
         <v>0.64290000000000003</v>
       </c>
-      <c r="J161" s="16"/>
+      <c r="J161" s="13"/>
       <c r="L161" t="s">
         <v>18</v>
       </c>
@@ -15480,7 +16722,7 @@
       <c r="T161" s="5">
         <v>1</v>
       </c>
-      <c r="U161" s="16"/>
+      <c r="U161" s="13"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -15510,7 +16752,7 @@
       <c r="I162" s="5">
         <v>0.58540000000000003</v>
       </c>
-      <c r="J162" s="16"/>
+      <c r="J162" s="13"/>
       <c r="L162" t="s">
         <v>16</v>
       </c>
@@ -15538,7 +16780,7 @@
       <c r="T162" s="5">
         <v>0.25</v>
       </c>
-      <c r="U162" s="16"/>
+      <c r="U162" s="13"/>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -15568,7 +16810,7 @@
       <c r="I163" s="5">
         <v>0.4375</v>
       </c>
-      <c r="J163" s="17"/>
+      <c r="J163" s="14"/>
       <c r="L163" t="s">
         <v>11</v>
       </c>
@@ -15596,7 +16838,7 @@
       <c r="T163" s="5">
         <v>0.30769999999999997</v>
       </c>
-      <c r="U163" s="17"/>
+      <c r="U163" s="14"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -15623,7 +16865,7 @@
       <c r="H164" s="5">
         <v>0.4667</v>
       </c>
-      <c r="J164" s="17">
+      <c r="J164" s="14">
         <f>POWER(B164*C164*D164*E164*F164*G164*H164,1/7)</f>
         <v>0.48095635274052562</v>
       </c>
@@ -15651,279 +16893,279 @@
       <c r="S164" s="5">
         <v>0.44440000000000002</v>
       </c>
-      <c r="U164" s="17">
+      <c r="U164" s="14">
         <f>POWER(M164*N164*O164*P164*Q164*R164*S164,1/7)</f>
         <v>0.45927831969878913</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A167" s="18" t="s">
+    <row r="170" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A171" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A172" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" ht="17" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A180" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A168" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A170" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A175" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" ht="17" x14ac:dyDescent="0.25">
-      <c r="A176" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A177" s="18" t="s">
+    <row r="182" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A178" s="18" t="s">
+    <row r="183" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A183" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A184" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A186" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A189" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A190" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A191" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
+    <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A194" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A180" s="18" t="s">
+    <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A195" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A196" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A181" s="18" t="s">
+    <row r="198" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A198" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
+    <row r="199" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A199" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A183" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A184" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A185" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A186" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A187" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A188" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A189" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A191" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A192" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A193" s="18" t="s">
+    <row r="200" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A194" s="18" t="s">
+    <row r="201" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A202" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A203" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A204" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A195" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A196" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A197" s="18" t="s">
+    <row r="210" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A198" s="18" t="s">
+    <row r="211" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A211" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A212" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A199" s="18" t="s">
+    <row r="213" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A200" s="18" t="s">
+    <row r="217" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A201" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A206" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A207" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A208" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A209" s="18" t="s">
+    <row r="218" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A210" s="18" t="s">
+    <row r="219" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A211" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A212" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A213" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A214" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A215" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A216" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A217" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A218" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A219" s="18" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
